--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ListView_D3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF5B1C-5A9E-40E4-9198-E44294CD6A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEC76F7-B91E-4AAD-8D37-9DB4EE8D3173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
+    <workbookView xWindow="140" yWindow="200" windowWidth="19190" windowHeight="10190" xr2:uid="{0846998F-F898-4EBA-A281-F62381AC01CF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,10 @@
     <t xml:space="preserve"> CASH FUND PROFILE</t>
   </si>
   <si>
-    <t>dropdown_fiscal_coa</t>
-  </si>
-  <si>
     <t>J02</t>
+  </si>
+  <si>
+    <t>dropdown_appropriationYear_coa</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0417F25A-CB7B-4BB7-BF6E-139F4FF9C255}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE1231-2260-4E75-BAC5-1DE9E60B5BB4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -712,7 +712,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4">
         <v>2023</v>
@@ -730,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>22</v>
